--- a/biology/Botanique/Marsol/Marsol.xlsx
+++ b/biology/Botanique/Marsol/Marsol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Marsol  est le nom d'un hybride naturel de châtaignier (synonyme CA 07), croisement entre un châtaignier européen (Castanea sativa) et japonais (Castanea crenata).
@@ -513,7 +525,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre greffé de vigueur moyenne tend à flécher très haut sans se ramifier. Il met à fruits vers 4 à 5 ans.
 Ses fleurs mâles sont longistaminées mais son pollen est peu fertile.
@@ -546,9 +560,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Son débourrement précoce lui fait craindre le gel printanier. Il résiste bien à la rouille des feuilles et à la maladie de l'encre[1] mais c'est la variété la plus sensible au cynips du châtaignier.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Son débourrement précoce lui fait craindre le gel printanier. Il résiste bien à la rouille des feuilles et à la maladie de l'encre mais c'est la variété la plus sensible au cynips du châtaignier.
 Son principal avantage se situe au niveau de sa multiplication végétative assez facile.
 Comme porte-greffe, il est plus productif que Maraval (ou égal pour Bouche de Bétizac ou Comballe) et est :
 compatible avec les variétés Bouche de Bétizac, Bournette, Précoce Migoule, Belle épine, Bouche rouge, Comballe, Marron d'Olargues, Insidina, Impériale, Dorée de Lyon, Fertil
